--- a/Civilworks cost/Slope Protection/Pac-30/Noagan Part-A -Pac-30.xlsx
+++ b/Civilworks cost/Slope Protection/Pac-30/Noagan Part-A -Pac-30.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Slope Protection\Pac-30\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Detail" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Abst.!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Detail!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -813,13 +818,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1540,15 +1545,51 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1564,48 +1605,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1667,7 +1674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1699,9 +1706,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1733,6 +1741,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1908,84 +1917,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A161" zoomScale="112" zoomScaleNormal="115" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="7" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="71.25" customHeight="1">
-      <c r="A1" s="177" t="s">
+    <row r="1" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="29.25" customHeight="1">
+    <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1">
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="175"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="173"/>
       <c r="L3" s="27"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
         <v>40</v>
@@ -2001,7 +2010,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="32" t="s">
         <v>41</v>
@@ -2017,7 +2026,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="33" t="s">
         <v>42</v>
@@ -2046,7 +2055,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="33" t="s">
         <v>42</v>
@@ -2075,7 +2084,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="33" t="s">
         <v>42</v>
@@ -2102,7 +2111,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34"/>
@@ -2123,7 +2132,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="32" t="s">
         <v>49</v>
@@ -2139,7 +2148,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="33" t="s">
         <v>42</v>
@@ -2168,7 +2177,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
@@ -2187,7 +2196,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -2206,7 +2215,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="43" t="s">
         <v>51</v>
@@ -2243,7 +2252,7 @@
         <v>85.366666666666731</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -2259,25 +2268,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="151.5" customHeight="1">
+    <row r="16" spans="1:15" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="175"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="56" t="s">
         <v>58</v>
@@ -2292,7 +2301,7 @@
       <c r="J17" s="31"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="147" t="s">
         <v>42</v>
@@ -2320,7 +2329,7 @@
       <c r="J18" s="31"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="31" t="s">
         <v>59</v>
@@ -2336,7 +2345,7 @@
       <c r="J19" s="31"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="56" t="s">
         <v>61</v>
@@ -2369,7 +2378,7 @@
       </c>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="62" t="s">
         <v>42</v>
@@ -2398,7 +2407,7 @@
       <c r="K21" s="66"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="62" t="s">
         <v>42</v>
@@ -2425,7 +2434,7 @@
       <c r="K22" s="66"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="64"/>
       <c r="C23" s="63"/>
@@ -2444,7 +2453,7 @@
       <c r="K23" s="66"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="31" t="s">
         <v>59</v>
@@ -2461,7 +2470,7 @@
       <c r="K24" s="66"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="56" t="s">
         <v>61</v>
@@ -2494,7 +2503,7 @@
       </c>
       <c r="L25" s="68"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="69"/>
       <c r="B26" s="32" t="s">
         <v>68</v>
@@ -2510,7 +2519,7 @@
       <c r="K26" s="66"/>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -2524,7 +2533,7 @@
       <c r="K27" s="66"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="69"/>
       <c r="B28" s="141" t="s">
         <v>42</v>
@@ -2553,7 +2562,7 @@
       <c r="K28" s="66"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="69"/>
       <c r="B29" s="145" t="s">
         <v>59</v>
@@ -2570,7 +2579,7 @@
       <c r="K29" s="66"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="79"/>
       <c r="B30" s="56" t="s">
         <v>61</v>
@@ -2603,7 +2612,7 @@
       </c>
       <c r="L30" s="66"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="79"/>
       <c r="B31" s="56" t="s">
         <v>70</v>
@@ -2636,7 +2645,7 @@
       </c>
       <c r="L31" s="61"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="69"/>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
@@ -2655,7 +2664,7 @@
       </c>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="69"/>
       <c r="B33" s="37" t="s">
         <v>72</v>
@@ -2688,7 +2697,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="88"/>
       <c r="B34" s="89"/>
       <c r="C34" s="53"/>
@@ -2704,25 +2713,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="163.5" customHeight="1">
+    <row r="35" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="175"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="173"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="69"/>
       <c r="B36" s="79"/>
       <c r="C36" s="31" t="s">
@@ -2744,7 +2753,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="88"/>
       <c r="B37" s="89"/>
       <c r="C37" s="53"/>
@@ -2760,25 +2769,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="47.25" customHeight="1">
+    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="175"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="173"/>
       <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="79"/>
       <c r="C39" s="31" t="s">
@@ -2800,7 +2809,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="51"/>
       <c r="B40" s="89"/>
       <c r="C40" s="53"/>
@@ -2816,25 +2825,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="55.5" customHeight="1">
+    <row r="41" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="175"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="173"/>
       <c r="L41" s="28"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="69"/>
       <c r="B42" s="32" t="s">
         <v>58</v>
@@ -2850,7 +2859,7 @@
       <c r="K42" s="91"/>
       <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="69"/>
       <c r="B43" s="33" t="s">
         <v>42</v>
@@ -2879,7 +2888,7 @@
       <c r="K43" s="91"/>
       <c r="L43" s="28"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="69"/>
       <c r="B44" s="37" t="s">
         <v>79</v>
@@ -2899,7 +2908,7 @@
       <c r="K44" s="66"/>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="69"/>
       <c r="B45" s="37" t="s">
         <v>80</v>
@@ -2935,7 +2944,7 @@
       </c>
       <c r="L45" s="28"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="69"/>
       <c r="B46" s="62" t="s">
         <v>42</v>
@@ -2964,7 +2973,7 @@
       <c r="K46" s="91"/>
       <c r="L46" s="28"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="69"/>
       <c r="B47" s="62" t="s">
         <v>42</v>
@@ -2991,7 +3000,7 @@
       <c r="K47" s="91"/>
       <c r="L47" s="28"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="69"/>
       <c r="B48" s="64"/>
       <c r="C48" s="63"/>
@@ -3010,7 +3019,7 @@
       <c r="K48" s="91"/>
       <c r="L48" s="28"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="69"/>
       <c r="B49" s="37" t="s">
         <v>81</v>
@@ -3030,7 +3039,7 @@
       <c r="K49" s="66"/>
       <c r="L49" s="28"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="69"/>
       <c r="B50" s="37" t="s">
         <v>80</v>
@@ -3066,7 +3075,7 @@
       </c>
       <c r="L50" s="28"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="69"/>
       <c r="B51" s="37"/>
       <c r="C51" s="35"/>
@@ -3088,7 +3097,7 @@
         <v>2414.8460000000036</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="88"/>
       <c r="B52" s="100"/>
       <c r="C52" s="39"/>
@@ -3106,25 +3115,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="163.5" customHeight="1">
+    <row r="53" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="180" t="s">
+      <c r="B53" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="181"/>
-      <c r="D53" s="181"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="181"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="181"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="181"/>
-      <c r="K53" s="181"/>
+      <c r="C53" s="175"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
       <c r="L53" s="103"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="69"/>
       <c r="B54" s="56" t="s">
         <v>58</v>
@@ -3140,7 +3149,7 @@
       <c r="K54" s="31"/>
       <c r="L54" s="28"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="69"/>
       <c r="B55" s="33" t="s">
         <v>42</v>
@@ -3169,7 +3178,7 @@
       <c r="K55" s="31"/>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="69"/>
       <c r="B56" s="37" t="s">
         <v>83</v>
@@ -3189,7 +3198,7 @@
       <c r="K56" s="31"/>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="69"/>
       <c r="B57" s="37" t="s">
         <v>84</v>
@@ -3220,7 +3229,7 @@
       </c>
       <c r="L57" s="28"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="69"/>
       <c r="B58" s="62" t="s">
         <v>42</v>
@@ -3249,7 +3258,7 @@
       <c r="K58" s="31"/>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="69"/>
       <c r="B59" s="62" t="s">
         <v>42</v>
@@ -3276,7 +3285,7 @@
       <c r="K59" s="31"/>
       <c r="L59" s="28"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="69"/>
       <c r="B60" s="64"/>
       <c r="C60" s="63"/>
@@ -3295,7 +3304,7 @@
       <c r="K60" s="31"/>
       <c r="L60" s="28"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="69"/>
       <c r="B61" s="37" t="s">
         <v>85</v>
@@ -3315,7 +3324,7 @@
       <c r="K61" s="31"/>
       <c r="L61" s="28"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="69"/>
       <c r="B62" s="37" t="s">
         <v>84</v>
@@ -3346,7 +3355,7 @@
       </c>
       <c r="L62" s="28"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="69"/>
       <c r="B63" s="32" t="s">
         <v>68</v>
@@ -3362,7 +3371,7 @@
       <c r="K63" s="31"/>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="69"/>
       <c r="B64" s="33" t="s">
         <v>42</v>
@@ -3391,7 +3400,7 @@
       <c r="K64" s="31"/>
       <c r="L64" s="28"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="69"/>
       <c r="B65" s="37" t="s">
         <v>86</v>
@@ -3411,7 +3420,7 @@
       <c r="K65" s="31"/>
       <c r="L65" s="28"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="69"/>
       <c r="B66" s="37" t="s">
         <v>84</v>
@@ -3442,7 +3451,7 @@
       </c>
       <c r="L66" s="28"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="69"/>
       <c r="B67" s="37"/>
       <c r="C67" s="31"/>
@@ -3465,7 +3474,7 @@
         <v>37638.560000000027</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="88"/>
       <c r="B68" s="89"/>
       <c r="C68" s="53"/>
@@ -3481,25 +3490,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="45" customHeight="1">
+    <row r="69" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="174" t="s">
+      <c r="B69" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168"/>
-      <c r="J69" s="168"/>
-      <c r="K69" s="168"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
+      <c r="J69" s="167"/>
+      <c r="K69" s="167"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="32" t="s">
         <v>58</v>
@@ -3515,7 +3524,7 @@
       <c r="K70" s="91"/>
       <c r="L70" s="28"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="93" t="s">
         <v>42</v>
@@ -3544,7 +3553,7 @@
       <c r="K71" s="91"/>
       <c r="L71" s="28"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="37" t="s">
         <v>79</v>
@@ -3564,7 +3573,7 @@
       <c r="K72" s="66"/>
       <c r="L72" s="28"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="37" t="s">
         <v>80</v>
@@ -3600,7 +3609,7 @@
       </c>
       <c r="L73" s="28"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="79" t="s">
         <v>89</v>
@@ -3635,7 +3644,7 @@
       </c>
       <c r="L74" s="28"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="62" t="s">
         <v>42</v>
@@ -3664,7 +3673,7 @@
       <c r="K75" s="92"/>
       <c r="L75" s="28"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="62" t="s">
         <v>42</v>
@@ -3691,7 +3700,7 @@
       <c r="K76" s="92"/>
       <c r="L76" s="28"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="64"/>
       <c r="C77" s="63"/>
@@ -3710,7 +3719,7 @@
       <c r="K77" s="92"/>
       <c r="L77" s="28"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="37" t="s">
         <v>81</v>
@@ -3730,7 +3739,7 @@
       <c r="K78" s="66"/>
       <c r="L78" s="28"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="37" t="s">
         <v>80</v>
@@ -3767,7 +3776,7 @@
       </c>
       <c r="L79" s="28"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="79" t="s">
         <v>89</v>
@@ -3803,7 +3812,7 @@
       </c>
       <c r="L80" s="28"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="37"/>
       <c r="B81" s="37"/>
       <c r="C81" s="35"/>
@@ -3824,7 +3833,7 @@
       </c>
       <c r="L81" s="28"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="37"/>
       <c r="B82" s="100"/>
       <c r="C82" s="39"/>
@@ -3840,15 +3849,15 @@
       </c>
       <c r="L82" s="28"/>
     </row>
-    <row r="83" spans="1:12" ht="27.75" customHeight="1">
+    <row r="83" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
-      <c r="B83" s="182" t="s">
+      <c r="B83" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="183"/>
-      <c r="F83" s="183"/>
+      <c r="C83" s="177"/>
+      <c r="D83" s="177"/>
+      <c r="E83" s="177"/>
+      <c r="F83" s="177"/>
       <c r="G83" s="34">
         <f>K81</f>
         <v>2637.5560000000037</v>
@@ -3871,7 +3880,7 @@
         <v>1318.7780000000018</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="51"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -3887,23 +3896,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.25" customHeight="1">
+    <row r="85" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
-      <c r="B85" s="184" t="s">
+      <c r="B85" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="185"/>
-      <c r="D85" s="185"/>
-      <c r="E85" s="185"/>
-      <c r="F85" s="185"/>
-      <c r="G85" s="185"/>
-      <c r="H85" s="185"/>
-      <c r="I85" s="185"/>
-      <c r="J85" s="185"/>
-      <c r="K85" s="185"/>
+      <c r="C85" s="179"/>
+      <c r="D85" s="179"/>
+      <c r="E85" s="179"/>
+      <c r="F85" s="179"/>
+      <c r="G85" s="179"/>
+      <c r="H85" s="179"/>
+      <c r="I85" s="179"/>
+      <c r="J85" s="179"/>
+      <c r="K85" s="179"/>
       <c r="L85" s="28"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="74"/>
       <c r="C86" s="74" t="s">
@@ -3925,7 +3934,7 @@
         <v>1318.7780000000018</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1">
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28"/>
       <c r="B87" s="74"/>
       <c r="C87" s="74"/>
@@ -3941,25 +3950,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="82.5" customHeight="1">
+    <row r="88" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="174" t="s">
+      <c r="B88" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="168"/>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
-      <c r="F88" s="168"/>
-      <c r="G88" s="168"/>
-      <c r="H88" s="168"/>
-      <c r="I88" s="168"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="168"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
+      <c r="E88" s="167"/>
+      <c r="F88" s="167"/>
+      <c r="G88" s="167"/>
+      <c r="H88" s="167"/>
+      <c r="I88" s="167"/>
+      <c r="J88" s="167"/>
+      <c r="K88" s="167"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="69"/>
       <c r="B89" s="56" t="s">
         <v>58</v>
@@ -3975,7 +3984,7 @@
       <c r="K89" s="74"/>
       <c r="L89" s="28"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="69"/>
       <c r="B90" s="62" t="s">
         <v>42</v>
@@ -4004,7 +4013,7 @@
       <c r="K90" s="74"/>
       <c r="L90" s="28"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="69"/>
       <c r="B91" s="37" t="s">
         <v>84</v>
@@ -4034,7 +4043,7 @@
       <c r="K91" s="74"/>
       <c r="L91" s="28"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="69"/>
       <c r="B92" s="62" t="s">
         <v>42</v>
@@ -4063,7 +4072,7 @@
       <c r="K92" s="74"/>
       <c r="L92" s="28"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="69"/>
       <c r="B93" s="62" t="s">
         <v>42</v>
@@ -4090,7 +4099,7 @@
       <c r="K93" s="74"/>
       <c r="L93" s="28"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="69"/>
       <c r="B94" s="64"/>
       <c r="C94" s="63"/>
@@ -4109,7 +4118,7 @@
       <c r="K94" s="74"/>
       <c r="L94" s="28"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="69"/>
       <c r="B95" s="37" t="s">
         <v>84</v>
@@ -4139,7 +4148,7 @@
       <c r="K95" s="74"/>
       <c r="L95" s="28"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="69"/>
       <c r="B96" s="31"/>
       <c r="C96" s="35"/>
@@ -4160,7 +4169,7 @@
       <c r="K96" s="74"/>
       <c r="L96" s="28"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="69"/>
       <c r="B97" s="31" t="s">
         <v>95</v>
@@ -4188,7 +4197,7 @@
       <c r="K97" s="31"/>
       <c r="L97" s="28"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="69"/>
       <c r="B98" s="41" t="s">
         <v>96</v>
@@ -4219,7 +4228,7 @@
       <c r="K98" s="66"/>
       <c r="L98" s="28"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="69"/>
       <c r="B99" s="30" t="s">
         <v>97</v>
@@ -4250,7 +4259,7 @@
         <v>156604.88750000024</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="88"/>
       <c r="B100" s="29"/>
       <c r="C100" s="30"/>
@@ -4273,7 +4282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="69"/>
       <c r="B101" s="120" t="s">
         <v>101</v>
@@ -4289,7 +4298,7 @@
       <c r="K101" s="66"/>
       <c r="L101" s="28"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="69"/>
       <c r="B102" s="121" t="s">
         <v>58</v>
@@ -4305,7 +4314,7 @@
       <c r="K102" s="66"/>
       <c r="L102" s="28"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="69"/>
       <c r="B103" s="37" t="s">
         <v>102</v>
@@ -4321,12 +4330,12 @@
       <c r="K103" s="66"/>
       <c r="L103" s="28"/>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="69"/>
-      <c r="B104" s="169" t="s">
+      <c r="B104" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="170"/>
+      <c r="C104" s="182"/>
       <c r="D104" s="31" t="s">
         <v>104</v>
       </c>
@@ -4339,7 +4348,7 @@
       <c r="K104" s="66"/>
       <c r="L104" s="28"/>
     </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1">
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="69"/>
       <c r="B105" s="62" t="s">
         <v>42</v>
@@ -4368,7 +4377,7 @@
       <c r="K105" s="66"/>
       <c r="L105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1">
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="69"/>
       <c r="B106" s="62" t="s">
         <v>42</v>
@@ -4397,7 +4406,7 @@
       <c r="K106" s="66"/>
       <c r="L106" s="28"/>
     </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1">
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="69"/>
       <c r="B107" s="62" t="s">
         <v>42</v>
@@ -4424,15 +4433,15 @@
       <c r="K107" s="66"/>
       <c r="L107" s="28"/>
     </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1">
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="69"/>
       <c r="B108" s="110"/>
       <c r="C108" s="63"/>
-      <c r="D108" s="171" t="s">
+      <c r="D108" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="E108" s="171"/>
-      <c r="F108" s="171"/>
+      <c r="E108" s="183"/>
+      <c r="F108" s="183"/>
       <c r="G108" s="65">
         <f>SUM(G105:G107)</f>
         <v>1681.0000000000027</v>
@@ -4445,12 +4454,12 @@
       <c r="K108" s="66"/>
       <c r="L108" s="28"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="69"/>
-      <c r="B109" s="169" t="s">
+      <c r="B109" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="170"/>
+      <c r="C109" s="182"/>
       <c r="D109" s="31" t="s">
         <v>106</v>
       </c>
@@ -4463,7 +4472,7 @@
       <c r="K109" s="66"/>
       <c r="L109" s="28"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="69"/>
       <c r="B110" s="62" t="s">
         <v>42</v>
@@ -4491,7 +4500,7 @@
       <c r="K110" s="66"/>
       <c r="L110" s="28"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="69"/>
       <c r="B111" s="95"/>
       <c r="C111" s="96"/>
@@ -4510,7 +4519,7 @@
       <c r="K111" s="66"/>
       <c r="L111" s="28"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="69"/>
       <c r="B112" s="37" t="s">
         <v>107</v>
@@ -4526,7 +4535,7 @@
       <c r="K112" s="66"/>
       <c r="L112" s="28"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="79"/>
       <c r="B113" s="37">
         <v>2</v>
@@ -4562,7 +4571,7 @@
       </c>
       <c r="L113" s="66"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="69"/>
       <c r="B114" s="30" t="s">
         <v>97</v>
@@ -4593,7 +4602,7 @@
         <v>53231.666666666759</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="88"/>
       <c r="B115" s="122"/>
       <c r="C115" s="123"/>
@@ -4617,7 +4626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="69"/>
       <c r="B116" s="120" t="s">
         <v>108</v>
@@ -4633,7 +4642,7 @@
       <c r="K116" s="97"/>
       <c r="L116" s="97"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="69"/>
       <c r="B117" s="125" t="s">
         <v>109</v>
@@ -4649,7 +4658,7 @@
       <c r="K117" s="97"/>
       <c r="L117" s="97"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="69"/>
       <c r="B118" s="62" t="s">
         <v>42</v>
@@ -4675,7 +4684,7 @@
       <c r="K118" s="97"/>
       <c r="L118" s="97"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="69"/>
       <c r="B119" s="77"/>
       <c r="C119" s="67"/>
@@ -4696,7 +4705,7 @@
       <c r="K119" s="97"/>
       <c r="L119" s="97"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="69"/>
       <c r="B120" s="37" t="s">
         <v>110</v>
@@ -4732,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="88"/>
       <c r="B121" s="29"/>
       <c r="C121" s="31"/>
@@ -4748,25 +4757,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="43.5" customHeight="1">
+    <row r="122" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="172" t="s">
+      <c r="B122" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="167"/>
-      <c r="D122" s="167"/>
-      <c r="E122" s="167"/>
-      <c r="F122" s="167"/>
-      <c r="G122" s="167"/>
-      <c r="H122" s="167"/>
-      <c r="I122" s="167"/>
-      <c r="J122" s="167"/>
-      <c r="K122" s="173"/>
+      <c r="C122" s="172"/>
+      <c r="D122" s="172"/>
+      <c r="E122" s="172"/>
+      <c r="F122" s="172"/>
+      <c r="G122" s="172"/>
+      <c r="H122" s="172"/>
+      <c r="I122" s="172"/>
+      <c r="J122" s="172"/>
+      <c r="K122" s="185"/>
       <c r="L122" s="28"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="69"/>
       <c r="B123" s="77"/>
       <c r="C123" s="67" t="s">
@@ -4782,7 +4791,7 @@
       <c r="K123" s="97"/>
       <c r="L123" s="28"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="69"/>
       <c r="B124" s="37"/>
       <c r="C124" s="115">
@@ -4816,7 +4825,7 @@
       </c>
       <c r="L124" s="28"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="69"/>
       <c r="B125" s="128"/>
       <c r="C125" s="67" t="s">
@@ -4832,7 +4841,7 @@
       <c r="K125" s="99"/>
       <c r="L125" s="28"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="69"/>
       <c r="B126" s="37"/>
       <c r="C126" s="115">
@@ -4866,7 +4875,7 @@
       </c>
       <c r="L126" s="28"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="69"/>
       <c r="B127" s="128"/>
       <c r="C127" s="67" t="s">
@@ -4882,7 +4891,7 @@
       <c r="K127" s="99"/>
       <c r="L127" s="28"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="69"/>
       <c r="B128" s="29"/>
       <c r="C128" s="117">
@@ -4916,7 +4925,7 @@
       </c>
       <c r="L128" s="28"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="79"/>
       <c r="B129" s="130"/>
       <c r="C129" s="131"/>
@@ -4935,7 +4944,7 @@
       </c>
       <c r="L129" s="66"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="79"/>
       <c r="B130" s="37"/>
       <c r="C130" s="31"/>
@@ -4951,7 +4960,7 @@
       </c>
       <c r="L130" s="66"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="79"/>
       <c r="B131" s="37" t="s">
         <v>117</v>
@@ -4982,7 +4991,7 @@
         <v>3224.3057000000053</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="88"/>
       <c r="B132" s="89"/>
       <c r="C132" s="53"/>
@@ -5000,7 +5009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="69"/>
       <c r="B133" s="37" t="s">
         <v>22</v>
@@ -5016,7 +5025,7 @@
       <c r="K133" s="66"/>
       <c r="L133" s="28"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="69"/>
       <c r="B134" s="37"/>
       <c r="C134" s="31" t="s">
@@ -5040,7 +5049,7 @@
         <v>3224.3057000000053</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="88"/>
       <c r="B135" s="29"/>
       <c r="C135" s="30"/>
@@ -5056,41 +5065,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="159" customHeight="1">
+    <row r="136" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="B136" s="174" t="s">
+      <c r="B136" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="C136" s="167"/>
-      <c r="D136" s="167"/>
-      <c r="E136" s="167"/>
-      <c r="F136" s="167"/>
-      <c r="G136" s="167"/>
-      <c r="H136" s="167"/>
-      <c r="I136" s="167"/>
-      <c r="J136" s="167"/>
-      <c r="K136" s="175"/>
+      <c r="C136" s="172"/>
+      <c r="D136" s="172"/>
+      <c r="E136" s="172"/>
+      <c r="F136" s="172"/>
+      <c r="G136" s="172"/>
+      <c r="H136" s="172"/>
+      <c r="I136" s="172"/>
+      <c r="J136" s="172"/>
+      <c r="K136" s="173"/>
       <c r="L136" s="134"/>
     </row>
-    <row r="137" spans="1:12" ht="12.75" customHeight="1">
+    <row r="137" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="134"/>
-      <c r="B137" s="172" t="s">
+      <c r="B137" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="176"/>
-      <c r="D137" s="176"/>
-      <c r="E137" s="176"/>
-      <c r="F137" s="176"/>
-      <c r="G137" s="176"/>
-      <c r="H137" s="176"/>
-      <c r="I137" s="176"/>
-      <c r="J137" s="176"/>
-      <c r="K137" s="173"/>
+      <c r="C137" s="169"/>
+      <c r="D137" s="169"/>
+      <c r="E137" s="169"/>
+      <c r="F137" s="169"/>
+      <c r="G137" s="169"/>
+      <c r="H137" s="169"/>
+      <c r="I137" s="169"/>
+      <c r="J137" s="169"/>
+      <c r="K137" s="185"/>
       <c r="L137" s="134"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="B138" s="56" t="s">
         <v>68</v>
@@ -5106,7 +5115,7 @@
       <c r="K138" s="31"/>
       <c r="L138" s="134"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="B139" s="62" t="s">
         <v>42</v>
@@ -5135,7 +5144,7 @@
       <c r="K139" s="31"/>
       <c r="L139" s="134"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" s="76" t="s">
         <v>120</v>
@@ -5157,7 +5166,7 @@
       <c r="K140" s="31"/>
       <c r="L140" s="134"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="28"/>
       <c r="B141" s="76" t="s">
         <v>156</v>
@@ -5173,7 +5182,7 @@
       <c r="K141" s="31"/>
       <c r="L141" s="134"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="28"/>
       <c r="B142" s="76" t="s">
         <v>123</v>
@@ -5205,7 +5214,7 @@
       <c r="K142" s="31"/>
       <c r="L142" s="134"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="28"/>
       <c r="B143" s="76" t="s">
         <v>157</v>
@@ -5221,7 +5230,7 @@
       <c r="K143" s="31"/>
       <c r="L143" s="134"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="28"/>
       <c r="B144" s="76" t="s">
         <v>123</v>
@@ -5253,7 +5262,7 @@
       <c r="K144" s="31"/>
       <c r="L144" s="134"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="28"/>
       <c r="B145" s="76"/>
       <c r="C145" s="36"/>
@@ -5277,7 +5286,7 @@
         <v>2778.0740740740712</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="28"/>
       <c r="B146" s="135"/>
       <c r="C146" s="136"/>
@@ -5293,7 +5302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="69"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -5307,7 +5316,7 @@
       <c r="K147" s="11"/>
       <c r="L147" s="134"/>
     </row>
-    <row r="148" spans="1:12" hidden="1">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="69"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -5321,7 +5330,7 @@
       <c r="K148" s="11"/>
       <c r="L148" s="134"/>
     </row>
-    <row r="149" spans="1:12" hidden="1">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="69"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5335,7 +5344,7 @@
       <c r="K149" s="11"/>
       <c r="L149" s="134"/>
     </row>
-    <row r="150" spans="1:12" ht="0.75" hidden="1" customHeight="1">
+    <row r="150" spans="1:12" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="69"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5349,7 +5358,7 @@
       <c r="K150" s="11"/>
       <c r="L150" s="134"/>
     </row>
-    <row r="151" spans="1:12" hidden="1">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="69"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -5363,7 +5372,7 @@
       <c r="K151" s="11"/>
       <c r="L151" s="134"/>
     </row>
-    <row r="152" spans="1:12" hidden="1">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="69"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -5377,7 +5386,7 @@
       <c r="K152" s="11"/>
       <c r="L152" s="134"/>
     </row>
-    <row r="153" spans="1:12" hidden="1">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="69"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -5391,7 +5400,7 @@
       <c r="K153" s="11"/>
       <c r="L153" s="134"/>
     </row>
-    <row r="154" spans="1:12" ht="67.5" hidden="1" customHeight="1">
+    <row r="154" spans="1:12" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="69"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -5405,25 +5414,25 @@
       <c r="K154" s="11"/>
       <c r="L154" s="134"/>
     </row>
-    <row r="155" spans="1:12" ht="84" customHeight="1">
+    <row r="155" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B155" s="167" t="s">
+      <c r="B155" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="C155" s="168"/>
-      <c r="D155" s="168"/>
-      <c r="E155" s="168"/>
-      <c r="F155" s="168"/>
-      <c r="G155" s="168"/>
-      <c r="H155" s="168"/>
-      <c r="I155" s="168"/>
-      <c r="J155" s="168"/>
-      <c r="K155" s="168"/>
+      <c r="C155" s="167"/>
+      <c r="D155" s="167"/>
+      <c r="E155" s="167"/>
+      <c r="F155" s="167"/>
+      <c r="G155" s="167"/>
+      <c r="H155" s="167"/>
+      <c r="I155" s="167"/>
+      <c r="J155" s="167"/>
+      <c r="K155" s="167"/>
       <c r="L155" s="27"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="69"/>
       <c r="B156" s="31" t="s">
         <v>126</v>
@@ -5439,7 +5448,7 @@
       <c r="K156" s="11"/>
       <c r="L156" s="28"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="69"/>
       <c r="B157" s="121" t="s">
         <v>58</v>
@@ -5455,7 +5464,7 @@
       <c r="K157" s="11"/>
       <c r="L157" s="28"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="69"/>
       <c r="B158" s="93" t="s">
         <v>42</v>
@@ -5484,7 +5493,7 @@
       <c r="K158" s="11"/>
       <c r="L158" s="28"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="69"/>
       <c r="B159" s="62" t="s">
         <v>42</v>
@@ -5513,7 +5522,7 @@
       <c r="K159" s="11"/>
       <c r="L159" s="28"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="69"/>
       <c r="B160" s="62" t="s">
         <v>42</v>
@@ -5540,15 +5549,15 @@
       <c r="K160" s="11"/>
       <c r="L160" s="28"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="69"/>
       <c r="B161" s="110"/>
       <c r="C161" s="63"/>
-      <c r="D161" s="166" t="s">
+      <c r="D161" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E161" s="166"/>
-      <c r="F161" s="166"/>
+      <c r="E161" s="180"/>
+      <c r="F161" s="180"/>
       <c r="G161" s="65">
         <f>SUM(G158:G160)</f>
         <v>1681.0000000000027</v>
@@ -5559,7 +5568,7 @@
       <c r="K161" s="11"/>
       <c r="L161" s="28"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="69"/>
       <c r="B162" s="74" t="s">
         <v>127</v>
@@ -5575,7 +5584,7 @@
       <c r="K162" s="74"/>
       <c r="L162" s="28"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="69"/>
       <c r="B163" s="78">
         <f>G161</f>
@@ -5613,7 +5622,7 @@
         <v>100.86000000000017</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="69"/>
       <c r="B164" s="78"/>
       <c r="C164" s="136"/>
@@ -5630,7 +5639,7 @@
         <v>100.86000000000017</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="88"/>
       <c r="B165" s="30"/>
       <c r="C165" s="30"/>
@@ -5646,25 +5655,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="56.25" customHeight="1">
+    <row r="166" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B166" s="167" t="s">
+      <c r="B166" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="168"/>
-      <c r="D166" s="168"/>
-      <c r="E166" s="168"/>
-      <c r="F166" s="168"/>
-      <c r="G166" s="168"/>
-      <c r="H166" s="168"/>
-      <c r="I166" s="168"/>
-      <c r="J166" s="168"/>
-      <c r="K166" s="168"/>
+      <c r="C166" s="167"/>
+      <c r="D166" s="167"/>
+      <c r="E166" s="167"/>
+      <c r="F166" s="167"/>
+      <c r="G166" s="167"/>
+      <c r="H166" s="167"/>
+      <c r="I166" s="167"/>
+      <c r="J166" s="167"/>
+      <c r="K166" s="167"/>
       <c r="L166" s="27"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="69"/>
       <c r="B167" s="11" t="s">
         <v>126</v>
@@ -5680,7 +5689,7 @@
       <c r="K167" s="11"/>
       <c r="L167" s="28"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="69"/>
       <c r="B168" s="56" t="s">
         <v>68</v>
@@ -5696,7 +5705,7 @@
       <c r="K168" s="11"/>
       <c r="L168" s="28"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="69"/>
       <c r="B169" s="93" t="s">
         <v>42</v>
@@ -5725,7 +5734,7 @@
       <c r="K169" s="11"/>
       <c r="L169" s="28"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="69"/>
       <c r="B170" s="37" t="s">
         <v>129</v>
@@ -5744,7 +5753,7 @@
         <v>9652.9999999999909</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="69"/>
       <c r="B171" s="37" t="s">
         <v>130</v>
@@ -5778,7 +5787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="88"/>
       <c r="B172" s="100"/>
       <c r="C172" s="40"/>
@@ -5794,6 +5803,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="B166:K166"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B136:K136"/>
+    <mergeCell ref="B155:K155"/>
+    <mergeCell ref="B137:K137"/>
     <mergeCell ref="B88:K88"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:I2"/>
@@ -5806,15 +5824,6 @@
     <mergeCell ref="B69:K69"/>
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B85:K85"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="B166:K166"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B136:K136"/>
-    <mergeCell ref="B155:K155"/>
-    <mergeCell ref="B137:K137"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5823,21 +5832,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="84.75" customHeight="1">
+    <row r="2" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="186" t="s">
         <v>154</v>
       </c>
@@ -5850,7 +5860,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="25.5">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5881,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5891,7 +5901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1">
+    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -5913,7 +5923,7 @@
         <v>31364.567000000025</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="306">
+    <row r="6" spans="1:9" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -5935,7 +5945,7 @@
         <v>7696227.6160000078</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="297" customHeight="1">
+    <row r="7" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5957,7 +5967,7 @@
         <v>2823334.6400000029</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" customHeight="1">
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5979,7 +5989,7 @@
         <v>303817.30400000029</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="77.25">
+    <row r="9" spans="1:9" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6001,7 +6011,7 @@
         <v>3061928.1341600046</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="318.75">
+    <row r="10" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -6023,7 +6033,7 @@
         <v>9414533.0128000062</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="107.25" customHeight="1">
+    <row r="11" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -6045,7 +6055,7 @@
         <v>7611472.2925800104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24" t="s">
         <v>37</v>
@@ -6065,7 +6075,7 @@
         <v>8091006.3489400111</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="162" customHeight="1">
+    <row r="13" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -6087,7 +6097,7 @@
         <v>71620113.20037511</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.25" customHeight="1">
+    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="23" t="s">
         <v>33</v>
@@ -6107,7 +6117,7 @@
         <v>20278603.416666701</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.25" customHeight="1">
+    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="17" t="s">
         <v>34</v>
@@ -6127,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="64.5">
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
@@ -6149,7 +6159,7 @@
         <v>4498003.1806710074</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.5" customHeight="1">
+    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="18" t="s">
         <v>22</v>
@@ -6169,7 +6179,7 @@
         <v>7045430.385070011</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="303" customHeight="1">
+    <row r="18" spans="1:7" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -6191,7 +6201,7 @@
         <v>943989.57037036947</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="140.25">
+    <row r="19" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -6213,7 +6223,7 @@
         <v>1301866.5876000021</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="114" customHeight="1">
+    <row r="20" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -6235,7 +6245,7 @@
         <v>318259.40999999968</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="165" customHeight="1">
+    <row r="21" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="163" t="s">
         <v>146</v>
       </c>
@@ -6255,8 +6265,12 @@
         <f>C21*E21</f>
         <v>967050.85</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="80.25" customHeight="1">
+      <c r="G21" s="188">
+        <f>SUM(F21,F22,F23,F24,F25,F26,F27)</f>
+        <v>1943223.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="150" t="s">
         <v>147</v>
       </c>
@@ -6277,7 +6291,7 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="69.75" customHeight="1">
+    <row r="23" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="150" t="s">
         <v>148</v>
       </c>
@@ -6298,7 +6312,7 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="92.25" customHeight="1">
+    <row r="24" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="150" t="s">
         <v>149</v>
       </c>
@@ -6319,7 +6333,7 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="152.25" customHeight="1">
+    <row r="25" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="150" t="s">
         <v>150</v>
       </c>
@@ -6340,7 +6354,7 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60.75" customHeight="1">
+    <row r="26" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="150" t="s">
         <v>140</v>
       </c>
@@ -6361,7 +6375,7 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="85.5" customHeight="1">
+    <row r="27" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="150" t="s">
         <v>151</v>
       </c>
@@ -6382,7 +6396,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -6395,15 +6409,18 @@
         <v>146983173.23623323</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="189">
+        <f>SUM(F21:F27)</f>
+        <v>1943223.57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6411,7 +6428,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6419,7 +6436,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6427,7 +6444,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6435,7 +6452,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6443,7 +6460,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6451,7 +6468,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6459,7 +6476,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6467,7 +6484,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6475,7 +6492,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6483,7 +6500,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6491,7 +6508,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6499,7 +6516,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6507,7 +6524,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -6515,7 +6532,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -6523,7 +6540,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -6531,7 +6548,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -6539,7 +6556,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -6547,7 +6564,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -6555,7 +6572,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -6563,7 +6580,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -6571,7 +6588,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -6579,7 +6596,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -6599,24 +6616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Civilworks cost/Slope Protection/Pac-30/Noagan Part-A -Pac-30.xlsx
+++ b/Civilworks cost/Slope Protection/Pac-30/Noagan Part-A -Pac-30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Slope Protection\Pac-30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Slope Protection\Pac-30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Detail" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="169">
   <si>
     <t>Sl. No/ code no</t>
   </si>
@@ -813,6 +813,36 @@
   </si>
   <si>
     <t>Total nos of bag=</t>
+  </si>
+  <si>
+    <t>Noagaon Haor Part-A</t>
+  </si>
+  <si>
+    <t>Noagaon Haor Part-B</t>
+  </si>
+  <si>
+    <t>Dakshiner Haor</t>
+  </si>
+  <si>
+    <t>Noapara Haor</t>
+  </si>
+  <si>
+    <t>KISH-30</t>
+  </si>
+  <si>
+    <t>KISH-31</t>
+  </si>
+  <si>
+    <t>KISH-32</t>
+  </si>
+  <si>
+    <t>KISH-33</t>
+  </si>
+  <si>
+    <t>KISH-34</t>
+  </si>
+  <si>
+    <t>KISH-35</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1545,6 +1575,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1611,8 +1652,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1920,81 +1962,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="7" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="180"/>
       <c r="L3" s="27"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
         <v>40</v>
@@ -2010,7 +2052,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32" t="s">
         <v>41</v>
@@ -2026,7 +2068,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="33" t="s">
         <v>42</v>
@@ -2055,7 +2097,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="33" t="s">
         <v>42</v>
@@ -2084,7 +2126,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="33" t="s">
         <v>42</v>
@@ -2111,7 +2153,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34"/>
@@ -2132,7 +2174,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="32" t="s">
         <v>49</v>
@@ -2148,7 +2190,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="33" t="s">
         <v>42</v>
@@ -2177,7 +2219,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
@@ -2196,7 +2238,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -2215,7 +2257,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="43" t="s">
         <v>51</v>
@@ -2252,7 +2294,7 @@
         <v>85.366666666666731</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -2268,25 +2310,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="173"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="56" t="s">
         <v>58</v>
@@ -2301,7 +2343,7 @@
       <c r="J17" s="31"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="147" t="s">
         <v>42</v>
@@ -2329,7 +2371,7 @@
       <c r="J18" s="31"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="31" t="s">
         <v>59</v>
@@ -2345,7 +2387,7 @@
       <c r="J19" s="31"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="56" t="s">
         <v>61</v>
@@ -2378,7 +2420,7 @@
       </c>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="62" t="s">
         <v>42</v>
@@ -2407,7 +2449,7 @@
       <c r="K21" s="66"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="62" t="s">
         <v>42</v>
@@ -2434,7 +2476,7 @@
       <c r="K22" s="66"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="64"/>
       <c r="C23" s="63"/>
@@ -2453,7 +2495,7 @@
       <c r="K23" s="66"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="31" t="s">
         <v>59</v>
@@ -2470,7 +2512,7 @@
       <c r="K24" s="66"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="56" t="s">
         <v>61</v>
@@ -2503,7 +2545,7 @@
       </c>
       <c r="L25" s="68"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="32" t="s">
         <v>68</v>
@@ -2519,7 +2561,7 @@
       <c r="K26" s="66"/>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -2533,7 +2575,7 @@
       <c r="K27" s="66"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="141" t="s">
         <v>42</v>
@@ -2562,7 +2604,7 @@
       <c r="K28" s="66"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="69"/>
       <c r="B29" s="145" t="s">
         <v>59</v>
@@ -2579,7 +2621,7 @@
       <c r="K29" s="66"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="79"/>
       <c r="B30" s="56" t="s">
         <v>61</v>
@@ -2612,7 +2654,7 @@
       </c>
       <c r="L30" s="66"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="79"/>
       <c r="B31" s="56" t="s">
         <v>70</v>
@@ -2645,7 +2687,7 @@
       </c>
       <c r="L31" s="61"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="69"/>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
@@ -2664,7 +2706,7 @@
       </c>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="37" t="s">
         <v>72</v>
@@ -2697,7 +2739,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="88"/>
       <c r="B34" s="89"/>
       <c r="C34" s="53"/>
@@ -2713,25 +2755,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="166" t="s">
+      <c r="B35" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="173"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="180"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="69"/>
       <c r="B36" s="79"/>
       <c r="C36" s="31" t="s">
@@ -2753,7 +2795,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="88"/>
       <c r="B37" s="89"/>
       <c r="C37" s="53"/>
@@ -2769,25 +2811,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="166" t="s">
+      <c r="B38" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="173"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="180"/>
       <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="79"/>
       <c r="C39" s="31" t="s">
@@ -2809,7 +2851,7 @@
         <v>17903.200000000019</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="89"/>
       <c r="C40" s="53"/>
@@ -2825,25 +2867,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="166" t="s">
+      <c r="B41" s="173" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="173"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="179"/>
+      <c r="K41" s="180"/>
       <c r="L41" s="28"/>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="69"/>
       <c r="B42" s="32" t="s">
         <v>58</v>
@@ -2859,7 +2901,7 @@
       <c r="K42" s="91"/>
       <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="69"/>
       <c r="B43" s="33" t="s">
         <v>42</v>
@@ -2888,7 +2930,7 @@
       <c r="K43" s="91"/>
       <c r="L43" s="28"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="69"/>
       <c r="B44" s="37" t="s">
         <v>79</v>
@@ -2908,7 +2950,7 @@
       <c r="K44" s="66"/>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="69"/>
       <c r="B45" s="37" t="s">
         <v>80</v>
@@ -2944,7 +2986,7 @@
       </c>
       <c r="L45" s="28"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="69"/>
       <c r="B46" s="62" t="s">
         <v>42</v>
@@ -2973,7 +3015,7 @@
       <c r="K46" s="91"/>
       <c r="L46" s="28"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="69"/>
       <c r="B47" s="62" t="s">
         <v>42</v>
@@ -3000,7 +3042,7 @@
       <c r="K47" s="91"/>
       <c r="L47" s="28"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="69"/>
       <c r="B48" s="64"/>
       <c r="C48" s="63"/>
@@ -3019,7 +3061,7 @@
       <c r="K48" s="91"/>
       <c r="L48" s="28"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="69"/>
       <c r="B49" s="37" t="s">
         <v>81</v>
@@ -3039,7 +3081,7 @@
       <c r="K49" s="66"/>
       <c r="L49" s="28"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="69"/>
       <c r="B50" s="37" t="s">
         <v>80</v>
@@ -3075,7 +3117,7 @@
       </c>
       <c r="L50" s="28"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="69"/>
       <c r="B51" s="37"/>
       <c r="C51" s="35"/>
@@ -3097,7 +3139,7 @@
         <v>2414.8460000000036</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="88"/>
       <c r="B52" s="100"/>
       <c r="C52" s="39"/>
@@ -3115,25 +3157,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="175"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="175"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="182"/>
+      <c r="H53" s="182"/>
+      <c r="I53" s="182"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="182"/>
       <c r="L53" s="103"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="69"/>
       <c r="B54" s="56" t="s">
         <v>58</v>
@@ -3149,7 +3191,7 @@
       <c r="K54" s="31"/>
       <c r="L54" s="28"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="69"/>
       <c r="B55" s="33" t="s">
         <v>42</v>
@@ -3178,7 +3220,7 @@
       <c r="K55" s="31"/>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="69"/>
       <c r="B56" s="37" t="s">
         <v>83</v>
@@ -3198,7 +3240,7 @@
       <c r="K56" s="31"/>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="69"/>
       <c r="B57" s="37" t="s">
         <v>84</v>
@@ -3229,7 +3271,7 @@
       </c>
       <c r="L57" s="28"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="69"/>
       <c r="B58" s="62" t="s">
         <v>42</v>
@@ -3258,7 +3300,7 @@
       <c r="K58" s="31"/>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="69"/>
       <c r="B59" s="62" t="s">
         <v>42</v>
@@ -3285,7 +3327,7 @@
       <c r="K59" s="31"/>
       <c r="L59" s="28"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="69"/>
       <c r="B60" s="64"/>
       <c r="C60" s="63"/>
@@ -3304,7 +3346,7 @@
       <c r="K60" s="31"/>
       <c r="L60" s="28"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="69"/>
       <c r="B61" s="37" t="s">
         <v>85</v>
@@ -3324,7 +3366,7 @@
       <c r="K61" s="31"/>
       <c r="L61" s="28"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="69"/>
       <c r="B62" s="37" t="s">
         <v>84</v>
@@ -3355,7 +3397,7 @@
       </c>
       <c r="L62" s="28"/>
     </row>
-    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="69"/>
       <c r="B63" s="32" t="s">
         <v>68</v>
@@ -3371,7 +3413,7 @@
       <c r="K63" s="31"/>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="69"/>
       <c r="B64" s="33" t="s">
         <v>42</v>
@@ -3400,7 +3442,7 @@
       <c r="K64" s="31"/>
       <c r="L64" s="28"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="69"/>
       <c r="B65" s="37" t="s">
         <v>86</v>
@@ -3420,7 +3462,7 @@
       <c r="K65" s="31"/>
       <c r="L65" s="28"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="69"/>
       <c r="B66" s="37" t="s">
         <v>84</v>
@@ -3451,7 +3493,7 @@
       </c>
       <c r="L66" s="28"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="69"/>
       <c r="B67" s="37"/>
       <c r="C67" s="31"/>
@@ -3474,7 +3516,7 @@
         <v>37638.560000000027</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="88"/>
       <c r="B68" s="89"/>
       <c r="C68" s="53"/>
@@ -3490,25 +3532,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="166" t="s">
+      <c r="B69" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="167"/>
-      <c r="F69" s="167"/>
-      <c r="G69" s="167"/>
-      <c r="H69" s="167"/>
-      <c r="I69" s="167"/>
-      <c r="J69" s="167"/>
-      <c r="K69" s="167"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="174"/>
+      <c r="E69" s="174"/>
+      <c r="F69" s="174"/>
+      <c r="G69" s="174"/>
+      <c r="H69" s="174"/>
+      <c r="I69" s="174"/>
+      <c r="J69" s="174"/>
+      <c r="K69" s="174"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="32" t="s">
         <v>58</v>
@@ -3524,7 +3566,7 @@
       <c r="K70" s="91"/>
       <c r="L70" s="28"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="37"/>
       <c r="B71" s="93" t="s">
         <v>42</v>
@@ -3553,7 +3595,7 @@
       <c r="K71" s="91"/>
       <c r="L71" s="28"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="37" t="s">
         <v>79</v>
@@ -3573,7 +3615,7 @@
       <c r="K72" s="66"/>
       <c r="L72" s="28"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="37" t="s">
         <v>80</v>
@@ -3609,7 +3651,7 @@
       </c>
       <c r="L73" s="28"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="79" t="s">
         <v>89</v>
@@ -3644,7 +3686,7 @@
       </c>
       <c r="L74" s="28"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="62" t="s">
         <v>42</v>
@@ -3673,7 +3715,7 @@
       <c r="K75" s="92"/>
       <c r="L75" s="28"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="62" t="s">
         <v>42</v>
@@ -3700,7 +3742,7 @@
       <c r="K76" s="92"/>
       <c r="L76" s="28"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="64"/>
       <c r="C77" s="63"/>
@@ -3719,7 +3761,7 @@
       <c r="K77" s="92"/>
       <c r="L77" s="28"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="37" t="s">
         <v>81</v>
@@ -3739,7 +3781,7 @@
       <c r="K78" s="66"/>
       <c r="L78" s="28"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="37" t="s">
         <v>80</v>
@@ -3776,7 +3818,7 @@
       </c>
       <c r="L79" s="28"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="79" t="s">
         <v>89</v>
@@ -3812,7 +3854,7 @@
       </c>
       <c r="L80" s="28"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="37"/>
       <c r="B81" s="37"/>
       <c r="C81" s="35"/>
@@ -3833,7 +3875,7 @@
       </c>
       <c r="L81" s="28"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="37"/>
       <c r="B82" s="100"/>
       <c r="C82" s="39"/>
@@ -3849,15 +3891,15 @@
       </c>
       <c r="L82" s="28"/>
     </row>
-    <row r="83" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
-      <c r="B83" s="176" t="s">
+      <c r="B83" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="177"/>
-      <c r="D83" s="177"/>
-      <c r="E83" s="177"/>
-      <c r="F83" s="177"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="184"/>
       <c r="G83" s="34">
         <f>K81</f>
         <v>2637.5560000000037</v>
@@ -3880,7 +3922,7 @@
         <v>1318.7780000000018</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="51"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -3896,23 +3938,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
-      <c r="B85" s="178" t="s">
+      <c r="B85" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="179"/>
-      <c r="D85" s="179"/>
-      <c r="E85" s="179"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="179"/>
-      <c r="H85" s="179"/>
-      <c r="I85" s="179"/>
-      <c r="J85" s="179"/>
-      <c r="K85" s="179"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
+      <c r="F85" s="186"/>
+      <c r="G85" s="186"/>
+      <c r="H85" s="186"/>
+      <c r="I85" s="186"/>
+      <c r="J85" s="186"/>
+      <c r="K85" s="186"/>
       <c r="L85" s="28"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="74"/>
       <c r="C86" s="74" t="s">
@@ -3934,7 +3976,7 @@
         <v>1318.7780000000018</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="74"/>
       <c r="C87" s="74"/>
@@ -3950,25 +3992,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="166" t="s">
+      <c r="B88" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="167"/>
-      <c r="G88" s="167"/>
-      <c r="H88" s="167"/>
-      <c r="I88" s="167"/>
-      <c r="J88" s="167"/>
-      <c r="K88" s="167"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
+      <c r="G88" s="174"/>
+      <c r="H88" s="174"/>
+      <c r="I88" s="174"/>
+      <c r="J88" s="174"/>
+      <c r="K88" s="174"/>
       <c r="L88" s="27"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="69"/>
       <c r="B89" s="56" t="s">
         <v>58</v>
@@ -3984,7 +4026,7 @@
       <c r="K89" s="74"/>
       <c r="L89" s="28"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="69"/>
       <c r="B90" s="62" t="s">
         <v>42</v>
@@ -4013,7 +4055,7 @@
       <c r="K90" s="74"/>
       <c r="L90" s="28"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="69"/>
       <c r="B91" s="37" t="s">
         <v>84</v>
@@ -4043,7 +4085,7 @@
       <c r="K91" s="74"/>
       <c r="L91" s="28"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="69"/>
       <c r="B92" s="62" t="s">
         <v>42</v>
@@ -4072,7 +4114,7 @@
       <c r="K92" s="74"/>
       <c r="L92" s="28"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="69"/>
       <c r="B93" s="62" t="s">
         <v>42</v>
@@ -4099,7 +4141,7 @@
       <c r="K93" s="74"/>
       <c r="L93" s="28"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="69"/>
       <c r="B94" s="64"/>
       <c r="C94" s="63"/>
@@ -4118,7 +4160,7 @@
       <c r="K94" s="74"/>
       <c r="L94" s="28"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="69"/>
       <c r="B95" s="37" t="s">
         <v>84</v>
@@ -4148,7 +4190,7 @@
       <c r="K95" s="74"/>
       <c r="L95" s="28"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="69"/>
       <c r="B96" s="31"/>
       <c r="C96" s="35"/>
@@ -4169,7 +4211,7 @@
       <c r="K96" s="74"/>
       <c r="L96" s="28"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="69"/>
       <c r="B97" s="31" t="s">
         <v>95</v>
@@ -4197,7 +4239,7 @@
       <c r="K97" s="31"/>
       <c r="L97" s="28"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="69"/>
       <c r="B98" s="41" t="s">
         <v>96</v>
@@ -4228,7 +4270,7 @@
       <c r="K98" s="66"/>
       <c r="L98" s="28"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="69"/>
       <c r="B99" s="30" t="s">
         <v>97</v>
@@ -4259,7 +4301,7 @@
         <v>156604.88750000024</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="88"/>
       <c r="B100" s="29"/>
       <c r="C100" s="30"/>
@@ -4282,7 +4324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="69"/>
       <c r="B101" s="120" t="s">
         <v>101</v>
@@ -4298,7 +4340,7 @@
       <c r="K101" s="66"/>
       <c r="L101" s="28"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="69"/>
       <c r="B102" s="121" t="s">
         <v>58</v>
@@ -4314,7 +4356,7 @@
       <c r="K102" s="66"/>
       <c r="L102" s="28"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="69"/>
       <c r="B103" s="37" t="s">
         <v>102</v>
@@ -4330,12 +4372,12 @@
       <c r="K103" s="66"/>
       <c r="L103" s="28"/>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="69"/>
-      <c r="B104" s="181" t="s">
+      <c r="B104" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="182"/>
+      <c r="C104" s="189"/>
       <c r="D104" s="31" t="s">
         <v>104</v>
       </c>
@@ -4348,7 +4390,7 @@
       <c r="K104" s="66"/>
       <c r="L104" s="28"/>
     </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="69"/>
       <c r="B105" s="62" t="s">
         <v>42</v>
@@ -4377,7 +4419,7 @@
       <c r="K105" s="66"/>
       <c r="L105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="69"/>
       <c r="B106" s="62" t="s">
         <v>42</v>
@@ -4406,7 +4448,7 @@
       <c r="K106" s="66"/>
       <c r="L106" s="28"/>
     </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="69"/>
       <c r="B107" s="62" t="s">
         <v>42</v>
@@ -4433,15 +4475,15 @@
       <c r="K107" s="66"/>
       <c r="L107" s="28"/>
     </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="69"/>
       <c r="B108" s="110"/>
       <c r="C108" s="63"/>
-      <c r="D108" s="183" t="s">
+      <c r="D108" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="E108" s="183"/>
-      <c r="F108" s="183"/>
+      <c r="E108" s="190"/>
+      <c r="F108" s="190"/>
       <c r="G108" s="65">
         <f>SUM(G105:G107)</f>
         <v>1681.0000000000027</v>
@@ -4454,12 +4496,12 @@
       <c r="K108" s="66"/>
       <c r="L108" s="28"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="69"/>
-      <c r="B109" s="181" t="s">
+      <c r="B109" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="182"/>
+      <c r="C109" s="189"/>
       <c r="D109" s="31" t="s">
         <v>106</v>
       </c>
@@ -4472,7 +4514,7 @@
       <c r="K109" s="66"/>
       <c r="L109" s="28"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="69"/>
       <c r="B110" s="62" t="s">
         <v>42</v>
@@ -4500,7 +4542,7 @@
       <c r="K110" s="66"/>
       <c r="L110" s="28"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="69"/>
       <c r="B111" s="95"/>
       <c r="C111" s="96"/>
@@ -4519,7 +4561,7 @@
       <c r="K111" s="66"/>
       <c r="L111" s="28"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="69"/>
       <c r="B112" s="37" t="s">
         <v>107</v>
@@ -4535,7 +4577,7 @@
       <c r="K112" s="66"/>
       <c r="L112" s="28"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="79"/>
       <c r="B113" s="37">
         <v>2</v>
@@ -4571,7 +4613,7 @@
       </c>
       <c r="L113" s="66"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="69"/>
       <c r="B114" s="30" t="s">
         <v>97</v>
@@ -4602,7 +4644,7 @@
         <v>53231.666666666759</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="88"/>
       <c r="B115" s="122"/>
       <c r="C115" s="123"/>
@@ -4626,7 +4668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="69"/>
       <c r="B116" s="120" t="s">
         <v>108</v>
@@ -4642,7 +4684,7 @@
       <c r="K116" s="97"/>
       <c r="L116" s="97"/>
     </row>
-    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="69"/>
       <c r="B117" s="125" t="s">
         <v>109</v>
@@ -4658,7 +4700,7 @@
       <c r="K117" s="97"/>
       <c r="L117" s="97"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="69"/>
       <c r="B118" s="62" t="s">
         <v>42</v>
@@ -4684,7 +4726,7 @@
       <c r="K118" s="97"/>
       <c r="L118" s="97"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="69"/>
       <c r="B119" s="77"/>
       <c r="C119" s="67"/>
@@ -4705,7 +4747,7 @@
       <c r="K119" s="97"/>
       <c r="L119" s="97"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="69"/>
       <c r="B120" s="37" t="s">
         <v>110</v>
@@ -4741,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="88"/>
       <c r="B121" s="29"/>
       <c r="C121" s="31"/>
@@ -4757,25 +4799,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="184" t="s">
+      <c r="B122" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="172"/>
-      <c r="D122" s="172"/>
-      <c r="E122" s="172"/>
-      <c r="F122" s="172"/>
-      <c r="G122" s="172"/>
-      <c r="H122" s="172"/>
-      <c r="I122" s="172"/>
-      <c r="J122" s="172"/>
-      <c r="K122" s="185"/>
+      <c r="C122" s="179"/>
+      <c r="D122" s="179"/>
+      <c r="E122" s="179"/>
+      <c r="F122" s="179"/>
+      <c r="G122" s="179"/>
+      <c r="H122" s="179"/>
+      <c r="I122" s="179"/>
+      <c r="J122" s="179"/>
+      <c r="K122" s="192"/>
       <c r="L122" s="28"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="69"/>
       <c r="B123" s="77"/>
       <c r="C123" s="67" t="s">
@@ -4791,7 +4833,7 @@
       <c r="K123" s="97"/>
       <c r="L123" s="28"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="69"/>
       <c r="B124" s="37"/>
       <c r="C124" s="115">
@@ -4825,7 +4867,7 @@
       </c>
       <c r="L124" s="28"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="69"/>
       <c r="B125" s="128"/>
       <c r="C125" s="67" t="s">
@@ -4841,7 +4883,7 @@
       <c r="K125" s="99"/>
       <c r="L125" s="28"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="69"/>
       <c r="B126" s="37"/>
       <c r="C126" s="115">
@@ -4875,7 +4917,7 @@
       </c>
       <c r="L126" s="28"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="69"/>
       <c r="B127" s="128"/>
       <c r="C127" s="67" t="s">
@@ -4891,7 +4933,7 @@
       <c r="K127" s="99"/>
       <c r="L127" s="28"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="69"/>
       <c r="B128" s="29"/>
       <c r="C128" s="117">
@@ -4925,7 +4967,7 @@
       </c>
       <c r="L128" s="28"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="79"/>
       <c r="B129" s="130"/>
       <c r="C129" s="131"/>
@@ -4944,7 +4986,7 @@
       </c>
       <c r="L129" s="66"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="79"/>
       <c r="B130" s="37"/>
       <c r="C130" s="31"/>
@@ -4960,7 +5002,7 @@
       </c>
       <c r="L130" s="66"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="79"/>
       <c r="B131" s="37" t="s">
         <v>117</v>
@@ -4991,7 +5033,7 @@
         <v>3224.3057000000053</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="88"/>
       <c r="B132" s="89"/>
       <c r="C132" s="53"/>
@@ -5009,7 +5051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="69"/>
       <c r="B133" s="37" t="s">
         <v>22</v>
@@ -5025,7 +5067,7 @@
       <c r="K133" s="66"/>
       <c r="L133" s="28"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="69"/>
       <c r="B134" s="37"/>
       <c r="C134" s="31" t="s">
@@ -5049,7 +5091,7 @@
         <v>3224.3057000000053</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="88"/>
       <c r="B135" s="29"/>
       <c r="C135" s="30"/>
@@ -5065,41 +5107,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="B136" s="166" t="s">
+      <c r="B136" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="C136" s="172"/>
-      <c r="D136" s="172"/>
-      <c r="E136" s="172"/>
-      <c r="F136" s="172"/>
-      <c r="G136" s="172"/>
-      <c r="H136" s="172"/>
-      <c r="I136" s="172"/>
-      <c r="J136" s="172"/>
-      <c r="K136" s="173"/>
+      <c r="C136" s="179"/>
+      <c r="D136" s="179"/>
+      <c r="E136" s="179"/>
+      <c r="F136" s="179"/>
+      <c r="G136" s="179"/>
+      <c r="H136" s="179"/>
+      <c r="I136" s="179"/>
+      <c r="J136" s="179"/>
+      <c r="K136" s="180"/>
       <c r="L136" s="134"/>
     </row>
-    <row r="137" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="134"/>
-      <c r="B137" s="184" t="s">
+      <c r="B137" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="169"/>
-      <c r="D137" s="169"/>
-      <c r="E137" s="169"/>
-      <c r="F137" s="169"/>
-      <c r="G137" s="169"/>
-      <c r="H137" s="169"/>
-      <c r="I137" s="169"/>
-      <c r="J137" s="169"/>
-      <c r="K137" s="185"/>
+      <c r="C137" s="176"/>
+      <c r="D137" s="176"/>
+      <c r="E137" s="176"/>
+      <c r="F137" s="176"/>
+      <c r="G137" s="176"/>
+      <c r="H137" s="176"/>
+      <c r="I137" s="176"/>
+      <c r="J137" s="176"/>
+      <c r="K137" s="192"/>
       <c r="L137" s="134"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="B138" s="56" t="s">
         <v>68</v>
@@ -5115,7 +5157,7 @@
       <c r="K138" s="31"/>
       <c r="L138" s="134"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="B139" s="62" t="s">
         <v>42</v>
@@ -5144,7 +5186,7 @@
       <c r="K139" s="31"/>
       <c r="L139" s="134"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="28"/>
       <c r="B140" s="76" t="s">
         <v>120</v>
@@ -5166,7 +5208,7 @@
       <c r="K140" s="31"/>
       <c r="L140" s="134"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="B141" s="76" t="s">
         <v>156</v>
@@ -5182,7 +5224,7 @@
       <c r="K141" s="31"/>
       <c r="L141" s="134"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
       <c r="B142" s="76" t="s">
         <v>123</v>
@@ -5214,7 +5256,7 @@
       <c r="K142" s="31"/>
       <c r="L142" s="134"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="28"/>
       <c r="B143" s="76" t="s">
         <v>157</v>
@@ -5230,7 +5272,7 @@
       <c r="K143" s="31"/>
       <c r="L143" s="134"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="28"/>
       <c r="B144" s="76" t="s">
         <v>123</v>
@@ -5262,7 +5304,7 @@
       <c r="K144" s="31"/>
       <c r="L144" s="134"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="28"/>
       <c r="B145" s="76"/>
       <c r="C145" s="36"/>
@@ -5286,7 +5328,7 @@
         <v>2778.0740740740712</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="28"/>
       <c r="B146" s="135"/>
       <c r="C146" s="136"/>
@@ -5302,7 +5344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="69"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -5316,7 +5358,7 @@
       <c r="K147" s="11"/>
       <c r="L147" s="134"/>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="69"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -5330,7 +5372,7 @@
       <c r="K148" s="11"/>
       <c r="L148" s="134"/>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="69"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5344,7 +5386,7 @@
       <c r="K149" s="11"/>
       <c r="L149" s="134"/>
     </row>
-    <row r="150" spans="1:12" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="69"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -5358,7 +5400,7 @@
       <c r="K150" s="11"/>
       <c r="L150" s="134"/>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="69"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -5372,7 +5414,7 @@
       <c r="K151" s="11"/>
       <c r="L151" s="134"/>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="69"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -5386,7 +5428,7 @@
       <c r="K152" s="11"/>
       <c r="L152" s="134"/>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="69"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -5400,7 +5442,7 @@
       <c r="K153" s="11"/>
       <c r="L153" s="134"/>
     </row>
-    <row r="154" spans="1:12" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="69"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -5414,25 +5456,25 @@
       <c r="K154" s="11"/>
       <c r="L154" s="134"/>
     </row>
-    <row r="155" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B155" s="172" t="s">
+      <c r="B155" s="179" t="s">
         <v>132</v>
       </c>
-      <c r="C155" s="167"/>
-      <c r="D155" s="167"/>
-      <c r="E155" s="167"/>
-      <c r="F155" s="167"/>
-      <c r="G155" s="167"/>
-      <c r="H155" s="167"/>
-      <c r="I155" s="167"/>
-      <c r="J155" s="167"/>
-      <c r="K155" s="167"/>
+      <c r="C155" s="174"/>
+      <c r="D155" s="174"/>
+      <c r="E155" s="174"/>
+      <c r="F155" s="174"/>
+      <c r="G155" s="174"/>
+      <c r="H155" s="174"/>
+      <c r="I155" s="174"/>
+      <c r="J155" s="174"/>
+      <c r="K155" s="174"/>
       <c r="L155" s="27"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="69"/>
       <c r="B156" s="31" t="s">
         <v>126</v>
@@ -5448,7 +5490,7 @@
       <c r="K156" s="11"/>
       <c r="L156" s="28"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="69"/>
       <c r="B157" s="121" t="s">
         <v>58</v>
@@ -5464,7 +5506,7 @@
       <c r="K157" s="11"/>
       <c r="L157" s="28"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="69"/>
       <c r="B158" s="93" t="s">
         <v>42</v>
@@ -5493,7 +5535,7 @@
       <c r="K158" s="11"/>
       <c r="L158" s="28"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="69"/>
       <c r="B159" s="62" t="s">
         <v>42</v>
@@ -5522,7 +5564,7 @@
       <c r="K159" s="11"/>
       <c r="L159" s="28"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="69"/>
       <c r="B160" s="62" t="s">
         <v>42</v>
@@ -5549,15 +5591,15 @@
       <c r="K160" s="11"/>
       <c r="L160" s="28"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="69"/>
       <c r="B161" s="110"/>
       <c r="C161" s="63"/>
-      <c r="D161" s="180" t="s">
+      <c r="D161" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="E161" s="180"/>
-      <c r="F161" s="180"/>
+      <c r="E161" s="187"/>
+      <c r="F161" s="187"/>
       <c r="G161" s="65">
         <f>SUM(G158:G160)</f>
         <v>1681.0000000000027</v>
@@ -5568,7 +5610,7 @@
       <c r="K161" s="11"/>
       <c r="L161" s="28"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="69"/>
       <c r="B162" s="74" t="s">
         <v>127</v>
@@ -5584,7 +5626,7 @@
       <c r="K162" s="74"/>
       <c r="L162" s="28"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="69"/>
       <c r="B163" s="78">
         <f>G161</f>
@@ -5622,7 +5664,7 @@
         <v>100.86000000000017</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="69"/>
       <c r="B164" s="78"/>
       <c r="C164" s="136"/>
@@ -5639,7 +5681,7 @@
         <v>100.86000000000017</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="88"/>
       <c r="B165" s="30"/>
       <c r="C165" s="30"/>
@@ -5655,25 +5697,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B166" s="172" t="s">
+      <c r="B166" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="167"/>
-      <c r="D166" s="167"/>
-      <c r="E166" s="167"/>
-      <c r="F166" s="167"/>
-      <c r="G166" s="167"/>
-      <c r="H166" s="167"/>
-      <c r="I166" s="167"/>
-      <c r="J166" s="167"/>
-      <c r="K166" s="167"/>
+      <c r="C166" s="174"/>
+      <c r="D166" s="174"/>
+      <c r="E166" s="174"/>
+      <c r="F166" s="174"/>
+      <c r="G166" s="174"/>
+      <c r="H166" s="174"/>
+      <c r="I166" s="174"/>
+      <c r="J166" s="174"/>
+      <c r="K166" s="174"/>
       <c r="L166" s="27"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="69"/>
       <c r="B167" s="11" t="s">
         <v>126</v>
@@ -5689,7 +5731,7 @@
       <c r="K167" s="11"/>
       <c r="L167" s="28"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="69"/>
       <c r="B168" s="56" t="s">
         <v>68</v>
@@ -5705,7 +5747,7 @@
       <c r="K168" s="11"/>
       <c r="L168" s="28"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="69"/>
       <c r="B169" s="93" t="s">
         <v>42</v>
@@ -5734,7 +5776,7 @@
       <c r="K169" s="11"/>
       <c r="L169" s="28"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="69"/>
       <c r="B170" s="37" t="s">
         <v>129</v>
@@ -5753,7 +5795,7 @@
         <v>9652.9999999999909</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="69"/>
       <c r="B171" s="37" t="s">
         <v>130</v>
@@ -5787,7 +5829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="88"/>
       <c r="B172" s="100"/>
       <c r="C172" s="40"/>
@@ -5839,28 +5881,28 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="186" t="s">
+    <row r="2" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="193" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5881,7 +5923,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5901,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -5923,7 +5965,7 @@
         <v>31364.567000000025</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -5945,7 +5987,7 @@
         <v>7696227.6160000078</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5967,7 +6009,7 @@
         <v>2823334.6400000029</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5989,7 +6031,7 @@
         <v>303817.30400000029</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6011,7 +6053,7 @@
         <v>3061928.1341600046</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -6033,7 +6075,7 @@
         <v>9414533.0128000062</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -6055,7 +6097,7 @@
         <v>7611472.2925800104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="24" t="s">
         <v>37</v>
@@ -6075,7 +6117,7 @@
         <v>8091006.3489400111</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -6097,7 +6139,7 @@
         <v>71620113.20037511</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="23" t="s">
         <v>33</v>
@@ -6117,7 +6159,7 @@
         <v>20278603.416666701</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="17" t="s">
         <v>34</v>
@@ -6137,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
@@ -6159,7 +6201,7 @@
         <v>4498003.1806710074</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="18" t="s">
         <v>22</v>
@@ -6179,7 +6221,7 @@
         <v>7045430.385070011</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="303" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -6201,7 +6243,7 @@
         <v>943989.57037036947</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="102" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -6223,7 +6265,7 @@
         <v>1301866.5876000021</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -6245,7 +6287,7 @@
         <v>318259.40999999968</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="163" t="s">
         <v>146</v>
       </c>
@@ -6265,12 +6307,12 @@
         <f>C21*E21</f>
         <v>967050.85</v>
       </c>
-      <c r="G21" s="188">
+      <c r="G21" s="166">
         <f>SUM(F21,F22,F23,F24,F25,F26,F27)</f>
         <v>1943223.57</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="150" t="s">
         <v>147</v>
       </c>
@@ -6291,7 +6333,7 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="150" t="s">
         <v>148</v>
       </c>
@@ -6312,7 +6354,7 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="150" t="s">
         <v>149</v>
       </c>
@@ -6333,7 +6375,7 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="150" t="s">
         <v>150</v>
       </c>
@@ -6354,7 +6396,7 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="150" t="s">
         <v>140</v>
       </c>
@@ -6375,7 +6417,7 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="150" t="s">
         <v>151</v>
       </c>
@@ -6396,31 +6438,31 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="187"/>
+      <c r="E28" s="194"/>
       <c r="F28" s="140">
         <f>SUM(F5:F27)</f>
         <v>146983173.23623323</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="189">
+      <c r="F29" s="167">
         <f>SUM(F21:F27)</f>
         <v>1943223.57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6428,7 +6470,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6436,7 +6478,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6444,7 +6486,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6452,7 +6494,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -6460,7 +6502,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -6468,7 +6510,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6476,7 +6518,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6484,7 +6526,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -6492,7 +6534,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -6500,7 +6542,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -6508,7 +6550,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -6516,7 +6558,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -6524,7 +6566,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -6532,7 +6574,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -6540,7 +6582,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -6548,7 +6590,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -6556,7 +6598,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -6564,7 +6606,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -6572,7 +6614,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -6580,7 +6622,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -6588,7 +6630,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -6596,7 +6638,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -6621,7 +6663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6629,12 +6671,648 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="170"/>
+    <col min="5" max="5" width="9.140625" style="170"/>
+    <col min="6" max="6" width="3.7109375" style="170" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="169">
+        <v>12.43</v>
+      </c>
+      <c r="D1" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="169">
+        <v>12.481</v>
+      </c>
+      <c r="F1" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="169">
+        <v>51.000000000000156</v>
+      </c>
+      <c r="H1" s="168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="169">
+        <v>19.59</v>
+      </c>
+      <c r="D2" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="169">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F2" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="169">
+        <v>510.00000000000159</v>
+      </c>
+      <c r="H2" s="168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="169">
+        <v>20.13</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="169">
+        <v>21.25</v>
+      </c>
+      <c r="F3" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="169">
+        <v>1120.0000000000009</v>
+      </c>
+      <c r="H3" s="168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="169" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="169">
+        <v>21.95</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="169">
+        <v>22.69</v>
+      </c>
+      <c r="F4" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="169">
+        <v>740.00000000000205</v>
+      </c>
+      <c r="H4" s="168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="169" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="169">
+        <v>26.08</v>
+      </c>
+      <c r="D5" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="169">
+        <v>26.18</v>
+      </c>
+      <c r="F5" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="169">
+        <v>100.00000000000142</v>
+      </c>
+      <c r="H5" s="168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="169">
+        <v>29.25</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="169">
+        <v>29.532</v>
+      </c>
+      <c r="F6" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="169">
+        <v>282</v>
+      </c>
+      <c r="H6" s="168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="169">
+        <v>29.562000000000001</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="169">
+        <v>30.012</v>
+      </c>
+      <c r="F7" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="169">
+        <v>449.99999999999932</v>
+      </c>
+      <c r="H7" s="168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="169">
+        <v>32.35</v>
+      </c>
+      <c r="D8" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="169">
+        <v>32.65</v>
+      </c>
+      <c r="F8" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="169">
+        <v>299.99999999999716</v>
+      </c>
+      <c r="H8" s="168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="169">
+        <v>33.875</v>
+      </c>
+      <c r="D9" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="169">
+        <v>33.924999999999997</v>
+      </c>
+      <c r="F9" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="169">
+        <v>49.999999999997158</v>
+      </c>
+      <c r="H9" s="168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="169">
+        <v>1.24</v>
+      </c>
+      <c r="D10" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="169">
+        <v>1.3</v>
+      </c>
+      <c r="F10" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="169">
+        <v>60.000000000000057</v>
+      </c>
+      <c r="H10" s="168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="169">
+        <v>1.6</v>
+      </c>
+      <c r="D11" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="169">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="F11" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="169">
+        <v>904.99999999999977</v>
+      </c>
+      <c r="H11" s="168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="169">
+        <v>23.437000000000001</v>
+      </c>
+      <c r="D12" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="169">
+        <v>23.562000000000001</v>
+      </c>
+      <c r="F12" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="169">
+        <v>125</v>
+      </c>
+      <c r="H12" s="168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="169">
+        <v>0.48</v>
+      </c>
+      <c r="D13" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="169">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F13" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="169">
+        <v>44.000000000000043</v>
+      </c>
+      <c r="H13" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="169">
+        <v>1.21</v>
+      </c>
+      <c r="D14" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="169">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="F14" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="169">
+        <v>35.000000000000142</v>
+      </c>
+      <c r="H14" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="169">
+        <v>8.76</v>
+      </c>
+      <c r="D15" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="169">
+        <v>8.7970000000000006</v>
+      </c>
+      <c r="F15" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="169">
+        <v>37.00000000000081</v>
+      </c>
+      <c r="H15" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="169">
+        <v>10.1</v>
+      </c>
+      <c r="D16" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="169">
+        <v>10.3</v>
+      </c>
+      <c r="F16" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="169">
+        <v>200.00000000000108</v>
+      </c>
+      <c r="H16" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="169">
+        <v>12.33</v>
+      </c>
+      <c r="D17" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="169">
+        <v>12.44</v>
+      </c>
+      <c r="F17" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="169">
+        <v>109.99999999999943</v>
+      </c>
+      <c r="H17" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="169">
+        <v>12.712</v>
+      </c>
+      <c r="D18" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="169">
+        <v>12.784000000000001</v>
+      </c>
+      <c r="F18" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="169">
+        <v>72.000000000000952</v>
+      </c>
+      <c r="H18" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="169">
+        <v>21.6</v>
+      </c>
+      <c r="D19" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="169">
+        <v>21.733000000000001</v>
+      </c>
+      <c r="F19" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="169">
+        <v>132.99999999999912</v>
+      </c>
+      <c r="H19" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="169">
+        <v>22.375</v>
+      </c>
+      <c r="D20" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="169">
+        <v>22.48</v>
+      </c>
+      <c r="F20" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="169">
+        <v>105.00000000000043</v>
+      </c>
+      <c r="H20" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="169">
+        <v>25.17</v>
+      </c>
+      <c r="D21" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="169">
+        <v>25.27</v>
+      </c>
+      <c r="F21" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="169">
+        <v>99.999999999997868</v>
+      </c>
+      <c r="H21" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="169">
+        <v>25.72</v>
+      </c>
+      <c r="D22" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="169">
+        <v>25.9</v>
+      </c>
+      <c r="F22" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="169">
+        <v>179.99999999999972</v>
+      </c>
+      <c r="H22" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="169">
+        <v>25.925000000000001</v>
+      </c>
+      <c r="D23" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="169">
+        <v>26.003</v>
+      </c>
+      <c r="F23" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="169">
+        <v>77.999999999999403</v>
+      </c>
+      <c r="H23" s="172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="195" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="169">
+        <v>2.95</v>
+      </c>
+      <c r="D24" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="169">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="F24" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="169">
+        <v>665</v>
+      </c>
+      <c r="H24" s="168" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="170"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Civilworks cost/Slope Protection/Pac-30/Noagan Part-A -Pac-30.xlsx
+++ b/Civilworks cost/Slope Protection/Pac-30/Noagan Part-A -Pac-30.xlsx
@@ -1017,12 +1017,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1194,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1586,30 +1592,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1628,33 +1655,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1982,36 +1992,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="185" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="1" t="s">
@@ -2022,18 +2032,18 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="183"/>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2314,18 +2324,18 @@
       <c r="A16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="183"/>
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2759,18 +2769,18 @@
       <c r="A35" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="183"/>
       <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,18 +2825,18 @@
       <c r="A38" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="180"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="183"/>
       <c r="L38" s="28"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,18 +2881,18 @@
       <c r="A41" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="180"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="183"/>
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3161,18 +3171,18 @@
       <c r="A53" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="182"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="189"/>
+      <c r="G53" s="189"/>
+      <c r="H53" s="189"/>
+      <c r="I53" s="189"/>
+      <c r="J53" s="189"/>
+      <c r="K53" s="189"/>
       <c r="L53" s="103"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3536,18 +3546,18 @@
       <c r="A69" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="173" t="s">
+      <c r="B69" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="174"/>
-      <c r="D69" s="174"/>
-      <c r="E69" s="174"/>
-      <c r="F69" s="174"/>
-      <c r="G69" s="174"/>
-      <c r="H69" s="174"/>
-      <c r="I69" s="174"/>
-      <c r="J69" s="174"/>
-      <c r="K69" s="174"/>
+      <c r="C69" s="176"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="176"/>
+      <c r="F69" s="176"/>
+      <c r="G69" s="176"/>
+      <c r="H69" s="176"/>
+      <c r="I69" s="176"/>
+      <c r="J69" s="176"/>
+      <c r="K69" s="176"/>
       <c r="L69" s="27"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3893,13 +3903,13 @@
     </row>
     <row r="83" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
-      <c r="B83" s="183" t="s">
+      <c r="B83" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="184"/>
-      <c r="F83" s="184"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
+      <c r="E83" s="191"/>
+      <c r="F83" s="191"/>
       <c r="G83" s="34">
         <f>K81</f>
         <v>2637.5560000000037</v>
@@ -3940,18 +3950,18 @@
     </row>
     <row r="85" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
-      <c r="B85" s="185" t="s">
+      <c r="B85" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="186"/>
-      <c r="D85" s="186"/>
-      <c r="E85" s="186"/>
-      <c r="F85" s="186"/>
-      <c r="G85" s="186"/>
-      <c r="H85" s="186"/>
-      <c r="I85" s="186"/>
-      <c r="J85" s="186"/>
-      <c r="K85" s="186"/>
+      <c r="C85" s="193"/>
+      <c r="D85" s="193"/>
+      <c r="E85" s="193"/>
+      <c r="F85" s="193"/>
+      <c r="G85" s="193"/>
+      <c r="H85" s="193"/>
+      <c r="I85" s="193"/>
+      <c r="J85" s="193"/>
+      <c r="K85" s="193"/>
       <c r="L85" s="28"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3996,18 +4006,18 @@
       <c r="A88" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="173" t="s">
+      <c r="B88" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="174"/>
-      <c r="D88" s="174"/>
-      <c r="E88" s="174"/>
-      <c r="F88" s="174"/>
-      <c r="G88" s="174"/>
-      <c r="H88" s="174"/>
-      <c r="I88" s="174"/>
-      <c r="J88" s="174"/>
-      <c r="K88" s="174"/>
+      <c r="C88" s="176"/>
+      <c r="D88" s="176"/>
+      <c r="E88" s="176"/>
+      <c r="F88" s="176"/>
+      <c r="G88" s="176"/>
+      <c r="H88" s="176"/>
+      <c r="I88" s="176"/>
+      <c r="J88" s="176"/>
+      <c r="K88" s="176"/>
       <c r="L88" s="27"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4374,10 +4384,10 @@
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="69"/>
-      <c r="B104" s="188" t="s">
+      <c r="B104" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="189"/>
+      <c r="C104" s="178"/>
       <c r="D104" s="31" t="s">
         <v>104</v>
       </c>
@@ -4479,11 +4489,11 @@
       <c r="A108" s="69"/>
       <c r="B108" s="110"/>
       <c r="C108" s="63"/>
-      <c r="D108" s="190" t="s">
+      <c r="D108" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="E108" s="190"/>
-      <c r="F108" s="190"/>
+      <c r="E108" s="179"/>
+      <c r="F108" s="179"/>
       <c r="G108" s="65">
         <f>SUM(G105:G107)</f>
         <v>1681.0000000000027</v>
@@ -4498,10 +4508,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="69"/>
-      <c r="B109" s="188" t="s">
+      <c r="B109" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="189"/>
+      <c r="C109" s="178"/>
       <c r="D109" s="31" t="s">
         <v>106</v>
       </c>
@@ -4803,18 +4813,18 @@
       <c r="A122" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="191" t="s">
+      <c r="B122" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="179"/>
-      <c r="D122" s="179"/>
-      <c r="E122" s="179"/>
-      <c r="F122" s="179"/>
-      <c r="G122" s="179"/>
-      <c r="H122" s="179"/>
-      <c r="I122" s="179"/>
-      <c r="J122" s="179"/>
-      <c r="K122" s="192"/>
+      <c r="C122" s="175"/>
+      <c r="D122" s="175"/>
+      <c r="E122" s="175"/>
+      <c r="F122" s="175"/>
+      <c r="G122" s="175"/>
+      <c r="H122" s="175"/>
+      <c r="I122" s="175"/>
+      <c r="J122" s="175"/>
+      <c r="K122" s="181"/>
       <c r="L122" s="28"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5111,34 +5121,34 @@
       <c r="A136" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="B136" s="173" t="s">
+      <c r="B136" s="182" t="s">
         <v>152</v>
       </c>
-      <c r="C136" s="179"/>
-      <c r="D136" s="179"/>
-      <c r="E136" s="179"/>
-      <c r="F136" s="179"/>
-      <c r="G136" s="179"/>
-      <c r="H136" s="179"/>
-      <c r="I136" s="179"/>
-      <c r="J136" s="179"/>
-      <c r="K136" s="180"/>
+      <c r="C136" s="175"/>
+      <c r="D136" s="175"/>
+      <c r="E136" s="175"/>
+      <c r="F136" s="175"/>
+      <c r="G136" s="175"/>
+      <c r="H136" s="175"/>
+      <c r="I136" s="175"/>
+      <c r="J136" s="175"/>
+      <c r="K136" s="183"/>
       <c r="L136" s="134"/>
     </row>
     <row r="137" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="134"/>
-      <c r="B137" s="191" t="s">
+      <c r="B137" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="176"/>
-      <c r="D137" s="176"/>
-      <c r="E137" s="176"/>
-      <c r="F137" s="176"/>
-      <c r="G137" s="176"/>
-      <c r="H137" s="176"/>
-      <c r="I137" s="176"/>
-      <c r="J137" s="176"/>
-      <c r="K137" s="192"/>
+      <c r="C137" s="184"/>
+      <c r="D137" s="184"/>
+      <c r="E137" s="184"/>
+      <c r="F137" s="184"/>
+      <c r="G137" s="184"/>
+      <c r="H137" s="184"/>
+      <c r="I137" s="184"/>
+      <c r="J137" s="184"/>
+      <c r="K137" s="181"/>
       <c r="L137" s="134"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -5460,18 +5470,18 @@
       <c r="A155" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B155" s="179" t="s">
+      <c r="B155" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="C155" s="174"/>
-      <c r="D155" s="174"/>
-      <c r="E155" s="174"/>
-      <c r="F155" s="174"/>
-      <c r="G155" s="174"/>
-      <c r="H155" s="174"/>
-      <c r="I155" s="174"/>
-      <c r="J155" s="174"/>
-      <c r="K155" s="174"/>
+      <c r="C155" s="176"/>
+      <c r="D155" s="176"/>
+      <c r="E155" s="176"/>
+      <c r="F155" s="176"/>
+      <c r="G155" s="176"/>
+      <c r="H155" s="176"/>
+      <c r="I155" s="176"/>
+      <c r="J155" s="176"/>
+      <c r="K155" s="176"/>
       <c r="L155" s="27"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -5595,11 +5605,11 @@
       <c r="A161" s="69"/>
       <c r="B161" s="110"/>
       <c r="C161" s="63"/>
-      <c r="D161" s="187" t="s">
+      <c r="D161" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="E161" s="187"/>
-      <c r="F161" s="187"/>
+      <c r="E161" s="174"/>
+      <c r="F161" s="174"/>
       <c r="G161" s="65">
         <f>SUM(G158:G160)</f>
         <v>1681.0000000000027</v>
@@ -5701,18 +5711,18 @@
       <c r="A166" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B166" s="179" t="s">
+      <c r="B166" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="174"/>
-      <c r="D166" s="174"/>
-      <c r="E166" s="174"/>
-      <c r="F166" s="174"/>
-      <c r="G166" s="174"/>
-      <c r="H166" s="174"/>
-      <c r="I166" s="174"/>
-      <c r="J166" s="174"/>
-      <c r="K166" s="174"/>
+      <c r="C166" s="176"/>
+      <c r="D166" s="176"/>
+      <c r="E166" s="176"/>
+      <c r="F166" s="176"/>
+      <c r="G166" s="176"/>
+      <c r="H166" s="176"/>
+      <c r="I166" s="176"/>
+      <c r="J166" s="176"/>
+      <c r="K166" s="176"/>
       <c r="L166" s="27"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -5845,15 +5855,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="B166:K166"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B122:K122"/>
-    <mergeCell ref="B136:K136"/>
-    <mergeCell ref="B155:K155"/>
-    <mergeCell ref="B137:K137"/>
     <mergeCell ref="B88:K88"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:I2"/>
@@ -5866,6 +5867,15 @@
     <mergeCell ref="B69:K69"/>
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B85:K85"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="B166:K166"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B136:K136"/>
+    <mergeCell ref="B155:K155"/>
+    <mergeCell ref="B137:K137"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5890,14 +5900,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -6442,10 +6452,10 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="194"/>
+      <c r="E28" s="195"/>
       <c r="F28" s="140">
         <f>SUM(F5:F27)</f>
         <v>146983173.23623323</v>
@@ -6674,7 +6684,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6686,132 +6696,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="169">
+      <c r="C1" s="196">
         <v>12.43</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="169">
+      <c r="E1" s="196">
         <v>12.481</v>
       </c>
-      <c r="F1" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="169">
+      <c r="F1" s="196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="196">
         <v>51.000000000000156</v>
       </c>
-      <c r="H1" s="168" t="s">
+      <c r="H1" s="197" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="169">
+      <c r="C2" s="196">
         <v>19.59</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="169">
+      <c r="E2" s="196">
         <v>20.100000000000001</v>
       </c>
-      <c r="F2" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="169">
+      <c r="F2" s="196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="196">
         <v>510.00000000000159</v>
       </c>
-      <c r="H2" s="168" t="s">
+      <c r="H2" s="197" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="169">
+      <c r="C3" s="196">
         <v>20.13</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="169">
+      <c r="E3" s="196">
         <v>21.25</v>
       </c>
-      <c r="F3" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="169">
+      <c r="F3" s="196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="196">
         <v>1120.0000000000009</v>
       </c>
-      <c r="H3" s="168" t="s">
+      <c r="H3" s="197" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="196" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="169">
+      <c r="C4" s="196">
         <v>21.95</v>
       </c>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="169">
+      <c r="E4" s="196">
         <v>22.69</v>
       </c>
-      <c r="F4" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="169">
+      <c r="F4" s="196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="196">
         <v>740.00000000000205</v>
       </c>
-      <c r="H4" s="168" t="s">
+      <c r="H4" s="197" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="196" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="169">
+      <c r="C5" s="196">
         <v>26.08</v>
       </c>
-      <c r="D5" s="169" t="s">
+      <c r="D5" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="169">
+      <c r="E5" s="196">
         <v>26.18</v>
       </c>
-      <c r="F5" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="169">
+      <c r="F5" s="196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="196">
         <v>100.00000000000142</v>
       </c>
-      <c r="H5" s="168" t="s">
+      <c r="H5" s="197" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7284,7 +7294,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="173" t="s">
         <v>168</v>
       </c>
       <c r="B24" s="168" t="s">
